--- a/data/pca/factorExposure/factorExposure_2018-08-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03649081487619774</v>
+        <v>-0.0309356746163728</v>
       </c>
       <c r="C2">
-        <v>0.0463556009952989</v>
+        <v>0.01434149544495737</v>
       </c>
       <c r="D2">
-        <v>0.03769296754359083</v>
+        <v>-0.01352677716195462</v>
       </c>
       <c r="E2">
-        <v>0.04849886319309047</v>
+        <v>0.01614798385599428</v>
       </c>
       <c r="F2">
-        <v>-0.1440957274533239</v>
+        <v>-0.02264590589893121</v>
       </c>
       <c r="G2">
-        <v>-0.05162629854585226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08532070539976767</v>
+      </c>
+      <c r="H2">
+        <v>0.01998391946920835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1195591119062218</v>
+        <v>-0.08233148986514315</v>
       </c>
       <c r="C3">
-        <v>0.00656910158502743</v>
+        <v>-0.01488702657564821</v>
       </c>
       <c r="D3">
-        <v>0.03222777546429399</v>
+        <v>-0.01708145728307495</v>
       </c>
       <c r="E3">
-        <v>0.09516014190411209</v>
+        <v>0.008536007966159883</v>
       </c>
       <c r="F3">
-        <v>-0.3866671267992606</v>
+        <v>0.01478840026913881</v>
       </c>
       <c r="G3">
-        <v>-0.1714618654790719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2722979963006885</v>
+      </c>
+      <c r="H3">
+        <v>0.03935768948625491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05451270717993523</v>
+        <v>-0.04994892788037768</v>
       </c>
       <c r="C4">
-        <v>0.03689969951495885</v>
+        <v>0.002773202460731284</v>
       </c>
       <c r="D4">
-        <v>-0.002165911383666304</v>
+        <v>-0.03209650160695757</v>
       </c>
       <c r="E4">
-        <v>0.06342085626820308</v>
+        <v>-0.02015665626252455</v>
       </c>
       <c r="F4">
-        <v>-0.07173029822106702</v>
+        <v>-0.05512542143629202</v>
       </c>
       <c r="G4">
-        <v>-0.04797394587005072</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0534513095620625</v>
+      </c>
+      <c r="H4">
+        <v>0.02645345370820545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01298816136063333</v>
+        <v>-0.02979780022057979</v>
       </c>
       <c r="C6">
-        <v>-0.002018581961744711</v>
+        <v>0.002993200746237704</v>
       </c>
       <c r="D6">
-        <v>0.01503275716160563</v>
+        <v>-0.04181814348501204</v>
       </c>
       <c r="E6">
-        <v>0.02236813489696576</v>
+        <v>-0.004760687902402179</v>
       </c>
       <c r="F6">
-        <v>-0.01267069671627636</v>
+        <v>-0.03546120577845222</v>
       </c>
       <c r="G6">
-        <v>0.003172588867319156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01651477208470583</v>
+      </c>
+      <c r="H6">
+        <v>0.05227667754375847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02728847584989926</v>
+        <v>-0.02154157595134105</v>
       </c>
       <c r="C7">
-        <v>0.01583114788257438</v>
+        <v>0.002444020694456554</v>
       </c>
       <c r="D7">
-        <v>0.03363225619784255</v>
+        <v>-0.01832444824118827</v>
       </c>
       <c r="E7">
-        <v>0.03558373808473347</v>
+        <v>-0.03472785002918849</v>
       </c>
       <c r="F7">
-        <v>-0.06180157668180779</v>
+        <v>-0.02020820280326665</v>
       </c>
       <c r="G7">
-        <v>-0.05629915681850747</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.04047029258946813</v>
+      </c>
+      <c r="H7">
+        <v>0.01571844932259615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01749865539764182</v>
+        <v>-0.006718066098477114</v>
       </c>
       <c r="C8">
-        <v>0.01602014066185179</v>
+        <v>-0.002756962707359915</v>
       </c>
       <c r="D8">
-        <v>-0.001327326529588975</v>
+        <v>-0.008562188371810357</v>
       </c>
       <c r="E8">
-        <v>0.07054186801738803</v>
+        <v>-0.01026103752570509</v>
       </c>
       <c r="F8">
-        <v>-0.08687979742801953</v>
+        <v>-0.02732001962037063</v>
       </c>
       <c r="G8">
-        <v>-0.06752155140622981</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05834001692189272</v>
+      </c>
+      <c r="H8">
+        <v>0.007034894435358082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04518044831201163</v>
+        <v>-0.04117971444487855</v>
       </c>
       <c r="C9">
-        <v>0.02914112873149563</v>
+        <v>-0.001366839487872232</v>
       </c>
       <c r="D9">
-        <v>-0.01035770345307908</v>
+        <v>-0.02711868525357635</v>
       </c>
       <c r="E9">
-        <v>0.06793433498883056</v>
+        <v>-0.01721215629458465</v>
       </c>
       <c r="F9">
-        <v>-0.06630361034790701</v>
+        <v>-0.03396031368554227</v>
       </c>
       <c r="G9">
-        <v>-0.05044658660017099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06312685080670179</v>
+      </c>
+      <c r="H9">
+        <v>0.02482001117973253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04888140563937356</v>
+        <v>-0.0982938002898</v>
       </c>
       <c r="C10">
-        <v>0.04102546684833496</v>
+        <v>-0.03324349195568641</v>
       </c>
       <c r="D10">
-        <v>-0.02730274747001224</v>
+        <v>0.1457928456863788</v>
       </c>
       <c r="E10">
-        <v>-0.1153277536946269</v>
+        <v>0.01959694801731037</v>
       </c>
       <c r="F10">
-        <v>-0.077538077900456</v>
+        <v>0.06794327095197679</v>
       </c>
       <c r="G10">
-        <v>0.03940993061958994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02307451312741197</v>
+      </c>
+      <c r="H10">
+        <v>0.004056613210317194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03382329802605352</v>
+        <v>-0.02278139393836863</v>
       </c>
       <c r="C11">
-        <v>0.01136929128402765</v>
+        <v>-0.008503548928680859</v>
       </c>
       <c r="D11">
-        <v>0.01956681689986787</v>
+        <v>-0.0336780341514564</v>
       </c>
       <c r="E11">
-        <v>0.03586135555889548</v>
+        <v>0.003776169434721123</v>
       </c>
       <c r="F11">
-        <v>-0.03447900854588839</v>
+        <v>-0.01996392911410259</v>
       </c>
       <c r="G11">
-        <v>-0.02225948054549292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03693383352335512</v>
+      </c>
+      <c r="H11">
+        <v>0.02755879901166569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04208889557015538</v>
+        <v>-0.0319028778581442</v>
       </c>
       <c r="C12">
-        <v>0.01255407655864334</v>
+        <v>-0.007141403057765385</v>
       </c>
       <c r="D12">
-        <v>0.006473371730786014</v>
+        <v>-0.03335122568521043</v>
       </c>
       <c r="E12">
-        <v>0.04478432729407616</v>
+        <v>-0.007462706233006861</v>
       </c>
       <c r="F12">
-        <v>-0.01678431026477592</v>
+        <v>-0.02378524361089947</v>
       </c>
       <c r="G12">
-        <v>-0.01757574994336396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01451389986777643</v>
+      </c>
+      <c r="H12">
+        <v>0.01409820252621325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02111334361486107</v>
+        <v>-0.02802286950137328</v>
       </c>
       <c r="C13">
-        <v>0.02428561250412457</v>
+        <v>0.01250392844645032</v>
       </c>
       <c r="D13">
-        <v>0.03284243761955288</v>
+        <v>-0.001818669518021503</v>
       </c>
       <c r="E13">
-        <v>0.01647378954314893</v>
+        <v>0.01848945339180312</v>
       </c>
       <c r="F13">
-        <v>-0.09010920746743184</v>
+        <v>-0.01774148216359635</v>
       </c>
       <c r="G13">
-        <v>-0.0340448218561835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.07172785940287149</v>
+      </c>
+      <c r="H13">
+        <v>0.02644619314167043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01174750370380979</v>
+        <v>-0.01676499764788693</v>
       </c>
       <c r="C14">
-        <v>0.01768506675352066</v>
+        <v>3.943528746786528e-07</v>
       </c>
       <c r="D14">
-        <v>0.00666285528861364</v>
+        <v>-0.003002425118519026</v>
       </c>
       <c r="E14">
-        <v>0.03995326921854452</v>
+        <v>-0.007459577254492221</v>
       </c>
       <c r="F14">
-        <v>-0.06260195337693461</v>
+        <v>-0.02269071850397671</v>
       </c>
       <c r="G14">
-        <v>-0.06553292758955316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04747369467903462</v>
+      </c>
+      <c r="H14">
+        <v>-0.01803659411247781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02527916026329557</v>
+        <v>-0.02429830760848182</v>
       </c>
       <c r="C16">
-        <v>0.01218241198655643</v>
+        <v>-0.009127878941676775</v>
       </c>
       <c r="D16">
-        <v>0.01699153490110489</v>
+        <v>-0.02908061199594805</v>
       </c>
       <c r="E16">
-        <v>0.03402917830600228</v>
+        <v>-0.0008116685819475763</v>
       </c>
       <c r="F16">
-        <v>-0.03975064541833702</v>
+        <v>-0.022002803052607</v>
       </c>
       <c r="G16">
-        <v>-0.02519398640940894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.03289239949031984</v>
+      </c>
+      <c r="H16">
+        <v>0.02149919141025077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03962642261477125</v>
+        <v>-0.03483553883018462</v>
       </c>
       <c r="C19">
-        <v>0.0124124957796846</v>
+        <v>-0.0008941891554793579</v>
       </c>
       <c r="D19">
-        <v>0.01995876217067255</v>
+        <v>-0.01329287501023643</v>
       </c>
       <c r="E19">
-        <v>0.05450824486828922</v>
+        <v>0.001942439704008894</v>
       </c>
       <c r="F19">
-        <v>-0.1002476982531241</v>
+        <v>-0.02906879306780219</v>
       </c>
       <c r="G19">
-        <v>-0.04551880251942122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.07621735660195979</v>
+      </c>
+      <c r="H19">
+        <v>0.03548825846224572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0001527323698794491</v>
+        <v>-0.01106795156432755</v>
       </c>
       <c r="C20">
-        <v>0.02242186737162301</v>
+        <v>0.005869582631746324</v>
       </c>
       <c r="D20">
-        <v>0.009724365216901166</v>
+        <v>-0.001539480234545373</v>
       </c>
       <c r="E20">
-        <v>0.03459601554181681</v>
+        <v>0.000374145270136671</v>
       </c>
       <c r="F20">
-        <v>-0.06170209817089115</v>
+        <v>-0.0156842693261324</v>
       </c>
       <c r="G20">
-        <v>-0.06839773144739293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05308837738398275</v>
+      </c>
+      <c r="H20">
+        <v>-0.01008127906036034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0008058514911070029</v>
+        <v>-0.02299155627200412</v>
       </c>
       <c r="C21">
-        <v>-0.003980752940406886</v>
+        <v>0.005277533393918245</v>
       </c>
       <c r="D21">
-        <v>0.006692347922895601</v>
+        <v>-0.003625219399413537</v>
       </c>
       <c r="E21">
-        <v>0.0435996014789866</v>
+        <v>-0.01106239671992243</v>
       </c>
       <c r="F21">
-        <v>-0.06159486036048357</v>
+        <v>-0.008769560224896356</v>
       </c>
       <c r="G21">
-        <v>-0.02997127773424672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05748140715175776</v>
+      </c>
+      <c r="H21">
+        <v>0.009822296421672549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03272458533619927</v>
+        <v>-0.02271304937888812</v>
       </c>
       <c r="C24">
-        <v>0.01596600339849517</v>
+        <v>-0.003728412863459297</v>
       </c>
       <c r="D24">
-        <v>0.01356886884073348</v>
+        <v>-0.0297087245284121</v>
       </c>
       <c r="E24">
-        <v>0.02278469489933388</v>
+        <v>-0.0009699503650610955</v>
       </c>
       <c r="F24">
-        <v>-0.03224982075190216</v>
+        <v>-0.01757114547201013</v>
       </c>
       <c r="G24">
-        <v>-0.02034410783906271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.03088784179735638</v>
+      </c>
+      <c r="H24">
+        <v>0.02600596444395637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03173640997835144</v>
+        <v>-0.03401868606426561</v>
       </c>
       <c r="C25">
-        <v>0.009153063982926304</v>
+        <v>-0.002429836591905332</v>
       </c>
       <c r="D25">
-        <v>0.0102714347644649</v>
+        <v>-0.02588960907000069</v>
       </c>
       <c r="E25">
-        <v>0.04019403523849719</v>
+        <v>-0.001467147121826529</v>
       </c>
       <c r="F25">
-        <v>-0.03267218454806173</v>
+        <v>-0.02202882691079778</v>
       </c>
       <c r="G25">
-        <v>-0.007207126514637393</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03491903960524763</v>
+      </c>
+      <c r="H25">
+        <v>0.0291239954130161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01978278049497753</v>
+        <v>-0.02017017095422897</v>
       </c>
       <c r="C26">
-        <v>-0.004108554945124377</v>
+        <v>0.0170817016006219</v>
       </c>
       <c r="D26">
-        <v>0.03618541698428805</v>
+        <v>-0.00415264836585341</v>
       </c>
       <c r="E26">
-        <v>0.03958222184337668</v>
+        <v>0.007561626729383731</v>
       </c>
       <c r="F26">
-        <v>-0.05762000465606511</v>
+        <v>-0.003835783529358299</v>
       </c>
       <c r="G26">
-        <v>-0.03283995465309381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0388750449909197</v>
+      </c>
+      <c r="H26">
+        <v>-0.002628190842277659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07534534860469358</v>
+        <v>-0.03101625428624038</v>
       </c>
       <c r="C27">
-        <v>0.05089958264675193</v>
+        <v>-0.01231036630164178</v>
       </c>
       <c r="D27">
-        <v>0.001843993172920038</v>
+        <v>-0.01173256137121371</v>
       </c>
       <c r="E27">
-        <v>0.05158926045673604</v>
+        <v>-0.005058615372947659</v>
       </c>
       <c r="F27">
-        <v>-0.05387663397731014</v>
+        <v>-0.02570062875959814</v>
       </c>
       <c r="G27">
-        <v>-0.05343735310381901</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.0284713551186575</v>
+      </c>
+      <c r="H27">
+        <v>-0.002067534005676737</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07207728798425261</v>
+        <v>-0.1478059213454034</v>
       </c>
       <c r="C28">
-        <v>0.0599079276806557</v>
+        <v>-0.03666519989544036</v>
       </c>
       <c r="D28">
-        <v>-0.05581508410745196</v>
+        <v>0.2169555684266346</v>
       </c>
       <c r="E28">
-        <v>-0.1716173824166687</v>
+        <v>0.02268069754733216</v>
       </c>
       <c r="F28">
-        <v>-0.09786346704349265</v>
+        <v>0.08941848171255973</v>
       </c>
       <c r="G28">
-        <v>0.01459856924063777</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.009218529461424688</v>
+      </c>
+      <c r="H28">
+        <v>-0.01283730137860905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02175218129507023</v>
+        <v>-0.02263880976133836</v>
       </c>
       <c r="C29">
-        <v>0.01992420318216164</v>
+        <v>-0.002529527917841991</v>
       </c>
       <c r="D29">
-        <v>-0.0004955687883476916</v>
+        <v>-0.004664017044110146</v>
       </c>
       <c r="E29">
-        <v>0.05452604467266377</v>
+        <v>-0.009165212082262456</v>
       </c>
       <c r="F29">
-        <v>-0.04762972731777756</v>
+        <v>-0.02460266955274161</v>
       </c>
       <c r="G29">
-        <v>-0.06416717359925289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0396890633738503</v>
+      </c>
+      <c r="H29">
+        <v>-0.01921141900449143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08988324158009466</v>
+        <v>-0.0559203997338514</v>
       </c>
       <c r="C30">
-        <v>0.05311372060269438</v>
+        <v>0.002751271038465993</v>
       </c>
       <c r="D30">
-        <v>0.04424406569943738</v>
+        <v>-0.05970572668003878</v>
       </c>
       <c r="E30">
-        <v>0.08299077915398456</v>
+        <v>0.03507076056025847</v>
       </c>
       <c r="F30">
-        <v>-0.04583904145918095</v>
+        <v>-0.06653675318978092</v>
       </c>
       <c r="G30">
-        <v>-0.05011180226717731</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06742892668421209</v>
+      </c>
+      <c r="H30">
+        <v>0.03275776346483569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06298009720019701</v>
+        <v>-0.05534927316937831</v>
       </c>
       <c r="C31">
-        <v>0.01589907077092301</v>
+        <v>-0.01513309475276478</v>
       </c>
       <c r="D31">
-        <v>0.05051906526946701</v>
+        <v>-0.02768509255080221</v>
       </c>
       <c r="E31">
-        <v>0.02914016007736089</v>
+        <v>0.009842340370940433</v>
       </c>
       <c r="F31">
-        <v>-0.0397792566044958</v>
+        <v>-0.01901255656129115</v>
       </c>
       <c r="G31">
-        <v>-0.07702170492865899</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02461218960550895</v>
+      </c>
+      <c r="H31">
+        <v>-0.01509776184215866</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02137082136145223</v>
+        <v>-0.01636968005464583</v>
       </c>
       <c r="C32">
-        <v>0.02832602938732239</v>
+        <v>-0.01689805571970678</v>
       </c>
       <c r="D32">
-        <v>0.005529613953033965</v>
+        <v>0.007045082588150388</v>
       </c>
       <c r="E32">
-        <v>0.07522163312581155</v>
+        <v>-0.01628265866331877</v>
       </c>
       <c r="F32">
-        <v>-0.0602528838558995</v>
+        <v>-0.04647631024794551</v>
       </c>
       <c r="G32">
-        <v>-0.05062326503021506</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05835502602971327</v>
+      </c>
+      <c r="H32">
+        <v>0.04210799573810721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05372623181910233</v>
+        <v>-0.04004599174597539</v>
       </c>
       <c r="C33">
-        <v>0.001826471186303824</v>
+        <v>-0.001293370752245725</v>
       </c>
       <c r="D33">
-        <v>0.04857971972807203</v>
+        <v>-0.03153275461416573</v>
       </c>
       <c r="E33">
-        <v>0.07029706478501445</v>
+        <v>0.02422892270015401</v>
       </c>
       <c r="F33">
-        <v>-0.09340538254460114</v>
+        <v>-0.01180261235777624</v>
       </c>
       <c r="G33">
-        <v>-0.04910021634393764</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.06605999281600179</v>
+      </c>
+      <c r="H33">
+        <v>0.01565668776362019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03316166301203043</v>
+        <v>-0.02788705703540091</v>
       </c>
       <c r="C34">
-        <v>0.01480234095556585</v>
+        <v>-0.01714159359738861</v>
       </c>
       <c r="D34">
-        <v>0.01350252710487838</v>
+        <v>-0.02993465707513334</v>
       </c>
       <c r="E34">
-        <v>0.04683587763562388</v>
+        <v>-0.005996302311105381</v>
       </c>
       <c r="F34">
-        <v>-0.03883026795888155</v>
+        <v>-0.02147567147170637</v>
       </c>
       <c r="G34">
-        <v>-0.01945337367675425</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02873420872492815</v>
+      </c>
+      <c r="H34">
+        <v>0.02445777727235925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01383274928947374</v>
+        <v>-0.02202704161991016</v>
       </c>
       <c r="C36">
-        <v>0.009305879515863445</v>
+        <v>0.002969761925470475</v>
       </c>
       <c r="D36">
-        <v>0.003360919652734362</v>
+        <v>0.002046253008500283</v>
       </c>
       <c r="E36">
-        <v>0.02847007057545702</v>
+        <v>-0.001331377221859261</v>
       </c>
       <c r="F36">
-        <v>-0.02468992611917483</v>
+        <v>-0.007853591139312211</v>
       </c>
       <c r="G36">
-        <v>-0.03526540645737041</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02104151989282261</v>
+      </c>
+      <c r="H36">
+        <v>-0.003900275628139047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0007196527001208094</v>
+        <v>-0.0220986554238582</v>
       </c>
       <c r="C38">
-        <v>-0.00641552950536154</v>
+        <v>-0.01680594100869128</v>
       </c>
       <c r="D38">
-        <v>-0.01450895018254965</v>
+        <v>0.0009896794730002057</v>
       </c>
       <c r="E38">
-        <v>-0.001897688990251439</v>
+        <v>-0.003754542911995944</v>
       </c>
       <c r="F38">
-        <v>-0.0192308813345396</v>
+        <v>-0.009580999410494694</v>
       </c>
       <c r="G38">
-        <v>0.009983714166707899</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.03052891479487014</v>
+      </c>
+      <c r="H38">
+        <v>0.021321192845226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03859424595687166</v>
+        <v>-0.02139394575695088</v>
       </c>
       <c r="C39">
-        <v>0.02014144608238498</v>
+        <v>-0.0007062196937390638</v>
       </c>
       <c r="D39">
-        <v>0.03580974009328906</v>
+        <v>-0.07012040862217303</v>
       </c>
       <c r="E39">
-        <v>0.04905474885208707</v>
+        <v>0.001919297527961171</v>
       </c>
       <c r="F39">
-        <v>-0.04391560526354574</v>
+        <v>-0.03861897585604698</v>
       </c>
       <c r="G39">
-        <v>-0.02018443408544743</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05759598766295528</v>
+      </c>
+      <c r="H39">
+        <v>0.04986578284093897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03185208697757146</v>
+        <v>-0.03536809246091547</v>
       </c>
       <c r="C40">
-        <v>0.0452137650960379</v>
+        <v>-0.002902018925516352</v>
       </c>
       <c r="D40">
-        <v>0.05677195437478218</v>
+        <v>-0.01445672636610975</v>
       </c>
       <c r="E40">
-        <v>0.03005673553954503</v>
+        <v>0.02281051707116608</v>
       </c>
       <c r="F40">
-        <v>-0.09068098878223055</v>
+        <v>-0.03320287374182115</v>
       </c>
       <c r="G40">
-        <v>-0.04480567511389803</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.05329206458951546</v>
+      </c>
+      <c r="H40">
+        <v>0.04647122267258844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001124045474400201</v>
+        <v>-0.01127737763775577</v>
       </c>
       <c r="C41">
-        <v>-0.008217638479528078</v>
+        <v>0.0001318545777146353</v>
       </c>
       <c r="D41">
-        <v>0.007922181422842787</v>
+        <v>0.009158558829349343</v>
       </c>
       <c r="E41">
-        <v>0.01632102570435196</v>
+        <v>0.003251024231111932</v>
       </c>
       <c r="F41">
-        <v>-0.01261942658560201</v>
+        <v>0.003464122586516532</v>
       </c>
       <c r="G41">
-        <v>-0.05565524000280544</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.009901232007042666</v>
+      </c>
+      <c r="H41">
+        <v>-0.01707826587452728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3545309379838474</v>
+        <v>-0.1754137974310042</v>
       </c>
       <c r="C42">
-        <v>-0.8881221169058983</v>
+        <v>0.1092996080011862</v>
       </c>
       <c r="D42">
-        <v>0.1859995419123247</v>
+        <v>-0.5168382018302815</v>
       </c>
       <c r="E42">
-        <v>-0.1350676373454124</v>
+        <v>0.1182193806245602</v>
       </c>
       <c r="F42">
-        <v>0.04476057433140874</v>
+        <v>0.8052082983376776</v>
       </c>
       <c r="G42">
-        <v>-0.02193247452076316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.09812579061376039</v>
+      </c>
+      <c r="H42">
+        <v>0.01921275569460158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007137095235501889</v>
+        <v>-0.0109575333095695</v>
       </c>
       <c r="C43">
-        <v>-0.003564233110996168</v>
+        <v>0.001555453233405816</v>
       </c>
       <c r="D43">
-        <v>0.01065178012806283</v>
+        <v>0.0132732069603278</v>
       </c>
       <c r="E43">
-        <v>0.01931465632152386</v>
+        <v>0.008333706779590463</v>
       </c>
       <c r="F43">
-        <v>-0.03322105750299301</v>
+        <v>0.008152360852248094</v>
       </c>
       <c r="G43">
-        <v>-0.04961970254898203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01888700542094003</v>
+      </c>
+      <c r="H43">
+        <v>-0.008786284961115545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02036596626369449</v>
+        <v>-0.01676127818876271</v>
       </c>
       <c r="C44">
-        <v>-0.001644099831092807</v>
+        <v>-0.001012227497925795</v>
       </c>
       <c r="D44">
-        <v>0.02563246531051255</v>
+        <v>-0.02277100989539948</v>
       </c>
       <c r="E44">
-        <v>0.06636727729851874</v>
+        <v>0.0001776483454334351</v>
       </c>
       <c r="F44">
-        <v>-0.1678981686546032</v>
+        <v>-0.00151251159048049</v>
       </c>
       <c r="G44">
-        <v>-0.1620497181863536</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0906995523433029</v>
+      </c>
+      <c r="H44">
+        <v>0.01301199780325976</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02000167408931174</v>
+        <v>-0.02214436332244353</v>
       </c>
       <c r="C46">
-        <v>0.01798851793591969</v>
+        <v>0.001431003769353819</v>
       </c>
       <c r="D46">
-        <v>0.02297853637100665</v>
+        <v>-0.009693779001658919</v>
       </c>
       <c r="E46">
-        <v>0.06737768820899717</v>
+        <v>0.002502233989409599</v>
       </c>
       <c r="F46">
-        <v>-0.0701653789766649</v>
+        <v>-0.0303654257783544</v>
       </c>
       <c r="G46">
-        <v>-0.05777822240461931</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05900788252931505</v>
+      </c>
+      <c r="H46">
+        <v>-0.0140412816061804</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09697629763952072</v>
+        <v>-0.07747964758593848</v>
       </c>
       <c r="C47">
-        <v>0.03337125605134355</v>
+        <v>-0.0314714108096522</v>
       </c>
       <c r="D47">
-        <v>0.02938591477130788</v>
+        <v>-0.03524866532991369</v>
       </c>
       <c r="E47">
-        <v>0.03521862792051877</v>
+        <v>0.005519451169787233</v>
       </c>
       <c r="F47">
-        <v>-0.0008689121894002111</v>
+        <v>-0.03053594834435126</v>
       </c>
       <c r="G47">
-        <v>-0.08921132925578787</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.009094154394542519</v>
+      </c>
+      <c r="H47">
+        <v>-0.02960673161693133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01503447855458851</v>
+        <v>-0.02267929539293796</v>
       </c>
       <c r="C48">
-        <v>0.00455719173835233</v>
+        <v>-0.007043243689159798</v>
       </c>
       <c r="D48">
-        <v>0.01693959344449979</v>
+        <v>-0.003900204766076444</v>
       </c>
       <c r="E48">
-        <v>0.03555552623910439</v>
+        <v>0.003348483120282969</v>
       </c>
       <c r="F48">
-        <v>-0.04033948459824233</v>
+        <v>-0.01021242446513767</v>
       </c>
       <c r="G48">
-        <v>-0.0182990873484991</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02909594067021825</v>
+      </c>
+      <c r="H48">
+        <v>0.0003583177601999866</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0909311636656301</v>
+        <v>-0.07404305080047553</v>
       </c>
       <c r="C50">
-        <v>0.01597559023008287</v>
+        <v>-0.02714002427088506</v>
       </c>
       <c r="D50">
-        <v>0.04227746907131121</v>
+        <v>-0.04195303507887368</v>
       </c>
       <c r="E50">
-        <v>0.0492538147759509</v>
+        <v>-0.008762876231985281</v>
       </c>
       <c r="F50">
-        <v>-0.02629314594942019</v>
+        <v>-0.02357270467221728</v>
       </c>
       <c r="G50">
-        <v>-0.03721966895604348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0230917818545086</v>
+      </c>
+      <c r="H50">
+        <v>-0.02629784609737083</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02184370716270703</v>
+        <v>-0.02268995342006759</v>
       </c>
       <c r="C51">
-        <v>0.01315169698193673</v>
+        <v>-0.0005851503456478557</v>
       </c>
       <c r="D51">
-        <v>0.02060430474189491</v>
+        <v>0.009688793355249158</v>
       </c>
       <c r="E51">
-        <v>0.02215797746847972</v>
+        <v>0.008044639753758657</v>
       </c>
       <c r="F51">
-        <v>-0.1436463696279148</v>
+        <v>0.004512489184695503</v>
       </c>
       <c r="G51">
-        <v>-0.05742276194927783</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.07661908148921084</v>
+      </c>
+      <c r="H51">
+        <v>0.02448283079815037</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1032884245974968</v>
+        <v>-0.09463755989167771</v>
       </c>
       <c r="C53">
-        <v>0.04713262700437721</v>
+        <v>-0.0381278289044515</v>
       </c>
       <c r="D53">
-        <v>0.0435887997915382</v>
+        <v>-0.06638665905917698</v>
       </c>
       <c r="E53">
-        <v>0.04207622484893869</v>
+        <v>0.001620590341642039</v>
       </c>
       <c r="F53">
-        <v>0.05036825304960704</v>
+        <v>-0.06277455823171764</v>
       </c>
       <c r="G53">
-        <v>-0.02745946282005365</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05530674775212435</v>
+      </c>
+      <c r="H53">
+        <v>-0.03417506835173296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0153348573958801</v>
+        <v>-0.02541061547444213</v>
       </c>
       <c r="C54">
-        <v>0.0292321581517351</v>
+        <v>-0.01294638380481787</v>
       </c>
       <c r="D54">
-        <v>0.002154643406576242</v>
+        <v>0.01955198386233943</v>
       </c>
       <c r="E54">
-        <v>0.03626490630956662</v>
+        <v>-0.002922076024583671</v>
       </c>
       <c r="F54">
-        <v>-0.06313351096131548</v>
+        <v>-0.01218828996160474</v>
       </c>
       <c r="G54">
-        <v>-0.07475566895624831</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03825599218271425</v>
+      </c>
+      <c r="H54">
+        <v>-0.01470908501976997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09988345832624747</v>
+        <v>-0.08098890810206527</v>
       </c>
       <c r="C55">
-        <v>0.03359004723374309</v>
+        <v>-0.03352834343458586</v>
       </c>
       <c r="D55">
-        <v>0.006107467627259182</v>
+        <v>-0.06341302407606728</v>
       </c>
       <c r="E55">
-        <v>0.05287910388942885</v>
+        <v>-0.009562529813774258</v>
       </c>
       <c r="F55">
-        <v>0.04381206875473553</v>
+        <v>-0.05227506164888181</v>
       </c>
       <c r="G55">
-        <v>-0.06534344739220571</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03312450222625703</v>
+      </c>
+      <c r="H55">
+        <v>-0.04526711383910711</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1461155535568438</v>
+        <v>-0.1305876157347575</v>
       </c>
       <c r="C56">
-        <v>0.08096576810413589</v>
+        <v>-0.0584567512843594</v>
       </c>
       <c r="D56">
-        <v>0.03100478869409122</v>
+        <v>-0.08583308410137254</v>
       </c>
       <c r="E56">
-        <v>0.04768827931760276</v>
+        <v>-0.002739399309093264</v>
       </c>
       <c r="F56">
-        <v>0.156341763980214</v>
+        <v>-0.0881709797480026</v>
       </c>
       <c r="G56">
-        <v>0.006045358530992169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.09981046310447653</v>
+      </c>
+      <c r="H56">
+        <v>-0.02808678119407302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04262635557337261</v>
+        <v>-0.04335010920297433</v>
       </c>
       <c r="C57">
-        <v>0.01387967645844218</v>
+        <v>0.00812121587205494</v>
       </c>
       <c r="D57">
-        <v>0.03053604028874741</v>
+        <v>-0.02043189771456959</v>
       </c>
       <c r="E57">
-        <v>0.008937840432526505</v>
+        <v>0.01066877907408279</v>
       </c>
       <c r="F57">
-        <v>-0.07741445326140599</v>
+        <v>-0.02309382103696977</v>
       </c>
       <c r="G57">
-        <v>-0.0353715225126552</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06335230189351269</v>
+      </c>
+      <c r="H57">
+        <v>0.01156990687249434</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1956032638599475</v>
+        <v>-0.1457431596039313</v>
       </c>
       <c r="C58">
-        <v>0.02346826873798973</v>
+        <v>-0.04214609285634617</v>
       </c>
       <c r="D58">
-        <v>0.1267274836564578</v>
+        <v>-0.1343159658090482</v>
       </c>
       <c r="E58">
-        <v>0.226503598271172</v>
+        <v>0.1096139000446838</v>
       </c>
       <c r="F58">
-        <v>-0.2401274602750536</v>
+        <v>-0.02002219250693794</v>
       </c>
       <c r="G58">
-        <v>0.02956900200266546</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.6675368595029125</v>
+      </c>
+      <c r="H58">
+        <v>-0.5575232954204526</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07050473547232397</v>
+        <v>-0.152634100156423</v>
       </c>
       <c r="C59">
-        <v>0.08083527365857117</v>
+        <v>-0.04417091754024186</v>
       </c>
       <c r="D59">
-        <v>-0.0385161612241478</v>
+        <v>0.2145291580213064</v>
       </c>
       <c r="E59">
-        <v>-0.1396919777626182</v>
+        <v>0.04111163786645991</v>
       </c>
       <c r="F59">
-        <v>-0.09678575020964829</v>
+        <v>0.07189185937822321</v>
       </c>
       <c r="G59">
-        <v>0.0339740096375918</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01733348688880891</v>
+      </c>
+      <c r="H59">
+        <v>0.02032393803517708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1689353008539598</v>
+        <v>-0.173265805490179</v>
       </c>
       <c r="C60">
-        <v>0.05360584054986692</v>
+        <v>-0.04015732903424264</v>
       </c>
       <c r="D60">
-        <v>0.06397831961988378</v>
+        <v>-0.01705933658929543</v>
       </c>
       <c r="E60">
-        <v>0.0427317801306452</v>
+        <v>0.05477184406329096</v>
       </c>
       <c r="F60">
-        <v>-0.1448497391866831</v>
+        <v>-0.05024996985235292</v>
       </c>
       <c r="G60">
-        <v>0.3352213378765714</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1358615327193375</v>
+      </c>
+      <c r="H60">
+        <v>0.3755886700409555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02000289376350548</v>
+        <v>-0.02285740573735019</v>
       </c>
       <c r="C61">
-        <v>0.005412140487227391</v>
+        <v>-0.006470834542482861</v>
       </c>
       <c r="D61">
-        <v>0.009094992608882413</v>
+        <v>-0.03803163346408621</v>
       </c>
       <c r="E61">
-        <v>0.028583612701154</v>
+        <v>-0.002784169388562348</v>
       </c>
       <c r="F61">
-        <v>-0.02128447109661796</v>
+        <v>-0.02644194314367432</v>
       </c>
       <c r="G61">
-        <v>-0.01775331450301101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03328794694038525</v>
+      </c>
+      <c r="H61">
+        <v>0.03717097362722956</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01636698420027901</v>
+        <v>-0.0142711561613137</v>
       </c>
       <c r="C63">
-        <v>0.007699452571365832</v>
+        <v>0.001431998649507145</v>
       </c>
       <c r="D63">
-        <v>0.01455718059260069</v>
+        <v>-0.008469578191311222</v>
       </c>
       <c r="E63">
-        <v>0.04197976441258647</v>
+        <v>-0.001940536193935872</v>
       </c>
       <c r="F63">
-        <v>-0.009656840665740778</v>
+        <v>-0.01806039217593627</v>
       </c>
       <c r="G63">
-        <v>-0.04445061029832242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01619173661258265</v>
+      </c>
+      <c r="H63">
+        <v>-0.01248880140060661</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03927138549960307</v>
+        <v>-0.04463999249856132</v>
       </c>
       <c r="C64">
-        <v>0.02197556974956945</v>
+        <v>-0.01192065540947526</v>
       </c>
       <c r="D64">
-        <v>-0.01784996398622018</v>
+        <v>-0.03430518538624003</v>
       </c>
       <c r="E64">
-        <v>0.0396714265254272</v>
+        <v>-0.009917712065246633</v>
       </c>
       <c r="F64">
-        <v>-0.02436797355765875</v>
+        <v>-0.02256868402730803</v>
       </c>
       <c r="G64">
-        <v>-0.06700439441991932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.02275881351693756</v>
+      </c>
+      <c r="H64">
+        <v>0.0259309657561874</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0133602581775773</v>
+        <v>-0.03427488829481407</v>
       </c>
       <c r="C65">
-        <v>-0.003498395173333196</v>
+        <v>0.003340071590282973</v>
       </c>
       <c r="D65">
-        <v>0.01399271027061054</v>
+        <v>-0.0466250585837145</v>
       </c>
       <c r="E65">
-        <v>0.02075476925352243</v>
+        <v>-0.005459711412042321</v>
       </c>
       <c r="F65">
-        <v>-0.008469789658328376</v>
+        <v>-0.03571993156228299</v>
       </c>
       <c r="G65">
-        <v>0.007443365726718536</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.005997519896710944</v>
+      </c>
+      <c r="H65">
+        <v>0.05930057215600124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03768397030619376</v>
+        <v>-0.02877455961960086</v>
       </c>
       <c r="C66">
-        <v>0.02332820393111137</v>
+        <v>-0.005928960459295613</v>
       </c>
       <c r="D66">
-        <v>0.02825384983362056</v>
+        <v>-0.07897808103782722</v>
       </c>
       <c r="E66">
-        <v>0.04976226707400466</v>
+        <v>0.006372332125276172</v>
       </c>
       <c r="F66">
-        <v>-0.03924299434173287</v>
+        <v>-0.05688703486362674</v>
       </c>
       <c r="G66">
-        <v>-0.007622641444875344</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04851151455701549</v>
+      </c>
+      <c r="H66">
+        <v>0.05889240589166706</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02012393115852542</v>
+        <v>-0.04396026347843659</v>
       </c>
       <c r="C67">
-        <v>-0.0003740198256729579</v>
+        <v>-0.02088563584290044</v>
       </c>
       <c r="D67">
-        <v>-0.01568702932370288</v>
+        <v>0.006057429288710837</v>
       </c>
       <c r="E67">
-        <v>-0.02030952776164192</v>
+        <v>-0.0005503918479343551</v>
       </c>
       <c r="F67">
-        <v>-0.02288617945716589</v>
+        <v>-0.01164801658773117</v>
       </c>
       <c r="G67">
-        <v>0.01245363076153024</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01885917948678316</v>
+      </c>
+      <c r="H67">
+        <v>0.03248868606598283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08172688745848593</v>
+        <v>-0.151492984318011</v>
       </c>
       <c r="C68">
-        <v>0.05914711543858571</v>
+        <v>-0.02192563516922493</v>
       </c>
       <c r="D68">
-        <v>-0.05491977730694431</v>
+        <v>0.2007563167153311</v>
       </c>
       <c r="E68">
-        <v>-0.1720508072538509</v>
+        <v>0.03496981536018029</v>
       </c>
       <c r="F68">
-        <v>-0.07194166332405516</v>
+        <v>0.09562363922419893</v>
       </c>
       <c r="G68">
-        <v>0.06720234655625743</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01297236935041023</v>
+      </c>
+      <c r="H68">
+        <v>-0.04079511385201325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07168429991025643</v>
+        <v>-0.06165736731488924</v>
       </c>
       <c r="C69">
-        <v>0.02859131014707017</v>
+        <v>-0.02938506378498828</v>
       </c>
       <c r="D69">
-        <v>0.0275644668737002</v>
+        <v>-0.03392102257707871</v>
       </c>
       <c r="E69">
-        <v>0.01277581553885236</v>
+        <v>0.005569442599868784</v>
       </c>
       <c r="F69">
-        <v>-0.009534456125594839</v>
+        <v>-0.02864434863545422</v>
       </c>
       <c r="G69">
-        <v>-0.07655412194581267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.0002632924282705001</v>
+      </c>
+      <c r="H69">
+        <v>-0.009412025239139289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09787098024563279</v>
+        <v>-0.1441421426992262</v>
       </c>
       <c r="C71">
-        <v>0.06229746767334943</v>
+        <v>-0.02977416427645994</v>
       </c>
       <c r="D71">
-        <v>-0.03542865024832736</v>
+        <v>0.1856034304122765</v>
       </c>
       <c r="E71">
-        <v>-0.2131453723620134</v>
+        <v>0.03451477677919028</v>
       </c>
       <c r="F71">
-        <v>-0.08727824722240241</v>
+        <v>0.09969878174793606</v>
       </c>
       <c r="G71">
-        <v>0.03565963594379264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01103262444721973</v>
+      </c>
+      <c r="H71">
+        <v>-0.0248086682238142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1095542928862286</v>
+        <v>-0.09001688075746982</v>
       </c>
       <c r="C72">
-        <v>0.09283932175097662</v>
+        <v>-0.04371295231836858</v>
       </c>
       <c r="D72">
-        <v>0.02214363084857977</v>
+        <v>-0.06786537524918866</v>
       </c>
       <c r="E72">
-        <v>0.07718618618096866</v>
+        <v>0.007827189717758877</v>
       </c>
       <c r="F72">
-        <v>-0.08999336116102717</v>
+        <v>-0.101724245475585</v>
       </c>
       <c r="G72">
-        <v>0.1080140181079821</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.1023073174198902</v>
+      </c>
+      <c r="H72">
+        <v>0.1498344535487285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2481864018922951</v>
+        <v>-0.2390010881863217</v>
       </c>
       <c r="C73">
-        <v>0.0673949126525033</v>
+        <v>-0.05074182791421421</v>
       </c>
       <c r="D73">
-        <v>0.05292903267606962</v>
+        <v>-0.0680278428501369</v>
       </c>
       <c r="E73">
-        <v>-0.00100062633685842</v>
+        <v>0.07813926643774785</v>
       </c>
       <c r="F73">
-        <v>-0.2252004476406757</v>
+        <v>-0.0633297385031845</v>
       </c>
       <c r="G73">
-        <v>0.4840672424070559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1845492996594249</v>
+      </c>
+      <c r="H73">
+        <v>0.5030782377807718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1278925617374712</v>
+        <v>-0.1184024521020855</v>
       </c>
       <c r="C74">
-        <v>0.04605953813427484</v>
+        <v>-0.05271235860520487</v>
       </c>
       <c r="D74">
-        <v>0.03792877172636136</v>
+        <v>-0.08614819962025817</v>
       </c>
       <c r="E74">
-        <v>0.0185898999293939</v>
+        <v>0.006309853749654737</v>
       </c>
       <c r="F74">
-        <v>0.09027257895296108</v>
+        <v>-0.07414341094924976</v>
       </c>
       <c r="G74">
-        <v>0.02847469376356083</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07438373279030845</v>
+      </c>
+      <c r="H74">
+        <v>-0.00790554312400423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2184294683488481</v>
+        <v>-0.229013065493737</v>
       </c>
       <c r="C75">
-        <v>0.1239560009609115</v>
+        <v>-0.1041115022568283</v>
       </c>
       <c r="D75">
-        <v>0.07888023860491786</v>
+        <v>-0.1384456590622865</v>
       </c>
       <c r="E75">
-        <v>0.06779153885884361</v>
+        <v>0.02100477746169011</v>
       </c>
       <c r="F75">
-        <v>0.1690059627148016</v>
+        <v>-0.150031982030351</v>
       </c>
       <c r="G75">
-        <v>-0.04761020067826546</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1588777765000074</v>
+      </c>
+      <c r="H75">
+        <v>-0.09138632372515021</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.272839855676172</v>
+        <v>-0.2075550111451485</v>
       </c>
       <c r="C76">
-        <v>0.1305882823582743</v>
+        <v>-0.09871208430217476</v>
       </c>
       <c r="D76">
-        <v>0.01682494444860609</v>
+        <v>-0.1270762649524286</v>
       </c>
       <c r="E76">
-        <v>0.03790004862188567</v>
+        <v>-0.02048150167606848</v>
       </c>
       <c r="F76">
-        <v>0.2028879602888899</v>
+        <v>-0.1462289699489391</v>
       </c>
       <c r="G76">
-        <v>-0.05378763454517679</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1731786487044746</v>
+      </c>
+      <c r="H76">
+        <v>-0.09362555249494638</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1407716372572582</v>
+        <v>-0.07249221599082771</v>
       </c>
       <c r="C77">
-        <v>-0.02193016763010481</v>
+        <v>-0.009275516072543458</v>
       </c>
       <c r="D77">
-        <v>0.06518370130424923</v>
+        <v>-0.07487168035248506</v>
       </c>
       <c r="E77">
-        <v>0.1064106514526784</v>
+        <v>0.01123526155383364</v>
       </c>
       <c r="F77">
-        <v>-0.2222862303702591</v>
+        <v>0.002211045689137079</v>
       </c>
       <c r="G77">
-        <v>-0.1421520752825235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1326245448821425</v>
+      </c>
+      <c r="H77">
+        <v>-0.06721199207965314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0549299409116572</v>
+        <v>-0.03743007971732856</v>
       </c>
       <c r="C78">
-        <v>0.01574027824001877</v>
+        <v>-0.01055151730870295</v>
       </c>
       <c r="D78">
-        <v>0.03750289387517209</v>
+        <v>-0.05811627066770178</v>
       </c>
       <c r="E78">
-        <v>0.1032983504057454</v>
+        <v>-0.003213111089818084</v>
       </c>
       <c r="F78">
-        <v>-0.04091488497264556</v>
+        <v>-0.0464972067071165</v>
       </c>
       <c r="G78">
-        <v>-0.05591177527055999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.0604176397311669</v>
+      </c>
+      <c r="H78">
+        <v>0.02565924599012091</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2219586396996835</v>
+        <v>-0.1675663278173316</v>
       </c>
       <c r="C80">
-        <v>-0.152607664088681</v>
+        <v>-0.05094812322796509</v>
       </c>
       <c r="D80">
-        <v>-0.9099881483466756</v>
+        <v>-0.004327690181500779</v>
       </c>
       <c r="E80">
-        <v>0.283707992970206</v>
+        <v>-0.9632071295061986</v>
       </c>
       <c r="F80">
-        <v>-0.006494059325067557</v>
+        <v>0.1277647256128888</v>
       </c>
       <c r="G80">
-        <v>0.01672584515847215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.09333166082780685</v>
+      </c>
+      <c r="H80">
+        <v>0.008175459220869985</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1581752187916315</v>
+        <v>-0.1510881127173174</v>
       </c>
       <c r="C81">
-        <v>0.09268701235081019</v>
+        <v>-0.06793492003858299</v>
       </c>
       <c r="D81">
-        <v>0.02731647709182761</v>
+        <v>-0.08499183120383422</v>
       </c>
       <c r="E81">
-        <v>0.0477645359069527</v>
+        <v>-0.002413464000564914</v>
       </c>
       <c r="F81">
-        <v>0.1717941563585987</v>
+        <v>-0.09691661859670775</v>
       </c>
       <c r="G81">
-        <v>-0.01621427337071779</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1052784592363963</v>
+      </c>
+      <c r="H81">
+        <v>-0.06665374738117058</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05517566584777051</v>
+        <v>-0.03816915378954355</v>
       </c>
       <c r="C83">
-        <v>-0.01172030005242631</v>
+        <v>-0.007358262943156762</v>
       </c>
       <c r="D83">
-        <v>0.03682880434861072</v>
+        <v>-0.02248673980165737</v>
       </c>
       <c r="E83">
-        <v>0.02527382500464967</v>
+        <v>0.0118825506793279</v>
       </c>
       <c r="F83">
-        <v>-0.05937136423905388</v>
+        <v>-0.007729678161173</v>
       </c>
       <c r="G83">
-        <v>-0.05094152870978164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05680270398927552</v>
+      </c>
+      <c r="H83">
+        <v>0.01528735871261233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2375775601594169</v>
+        <v>-0.2146301884671105</v>
       </c>
       <c r="C85">
-        <v>0.1142498378510873</v>
+        <v>-0.08568911360639003</v>
       </c>
       <c r="D85">
-        <v>0.05310270035255867</v>
+        <v>-0.1425323747765553</v>
       </c>
       <c r="E85">
-        <v>0.04374135909864128</v>
+        <v>0.01256204856386171</v>
       </c>
       <c r="F85">
-        <v>0.1875189999928247</v>
+        <v>-0.1331460504600457</v>
       </c>
       <c r="G85">
-        <v>-0.07182593520418847</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1692195735463272</v>
+      </c>
+      <c r="H85">
+        <v>-0.06057317627265997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.001198805016046152</v>
+        <v>-0.01725616779221316</v>
       </c>
       <c r="C86">
-        <v>-0.01075684898938926</v>
+        <v>0.001030745613628875</v>
       </c>
       <c r="D86">
-        <v>5.663891569289465e-05</v>
+        <v>-0.006332345196776607</v>
       </c>
       <c r="E86">
-        <v>0.04537721049926118</v>
+        <v>0.01150682916326625</v>
       </c>
       <c r="F86">
-        <v>-0.06547229009198215</v>
+        <v>0.004142510392531154</v>
       </c>
       <c r="G86">
-        <v>-0.01956548564083448</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08837555185928178</v>
+      </c>
+      <c r="H86">
+        <v>0.03772040256484838</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03280708535660629</v>
+        <v>-0.02922480222865375</v>
       </c>
       <c r="C87">
-        <v>0.00653857013241175</v>
+        <v>-0.003324244339905615</v>
       </c>
       <c r="D87">
-        <v>0.01241783108573846</v>
+        <v>-0.02832537700710709</v>
       </c>
       <c r="E87">
-        <v>0.03381751204257831</v>
+        <v>0.001551151967384931</v>
       </c>
       <c r="F87">
-        <v>-0.08318367876184457</v>
+        <v>-0.02174021300327324</v>
       </c>
       <c r="G87">
-        <v>-0.00175698576815031</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09586275444329005</v>
+      </c>
+      <c r="H87">
+        <v>0.02592535259016654</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009587126230491471</v>
+        <v>-0.03725336468359364</v>
       </c>
       <c r="C88">
-        <v>0.01393497206663965</v>
+        <v>0.01029741380679892</v>
       </c>
       <c r="D88">
-        <v>-0.02042546700527246</v>
+        <v>0.0002127057427054498</v>
       </c>
       <c r="E88">
-        <v>-0.002144489550353732</v>
+        <v>-0.008409950209851254</v>
       </c>
       <c r="F88">
-        <v>-0.0273731676051284</v>
+        <v>-0.01237628830270278</v>
       </c>
       <c r="G88">
-        <v>-0.06804584962675365</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.004570621227091556</v>
+      </c>
+      <c r="H88">
+        <v>0.009114816690989841</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1144427360719908</v>
+        <v>-0.2358579753409494</v>
       </c>
       <c r="C89">
-        <v>0.08993445517562788</v>
+        <v>-0.04569492616578497</v>
       </c>
       <c r="D89">
-        <v>-0.04799707184970573</v>
+        <v>0.3258953213635596</v>
       </c>
       <c r="E89">
-        <v>-0.2757427254177732</v>
+        <v>0.07849221724748326</v>
       </c>
       <c r="F89">
-        <v>-0.1380077010143538</v>
+        <v>0.1329075103853684</v>
       </c>
       <c r="G89">
-        <v>-0.006713758728513211</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.002499114456698433</v>
+      </c>
+      <c r="H89">
+        <v>-0.03194001191343163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1095844855503301</v>
+        <v>-0.1893398792539237</v>
       </c>
       <c r="C90">
-        <v>0.08923677480286688</v>
+        <v>-0.03754689791824505</v>
       </c>
       <c r="D90">
-        <v>-0.09233527695827382</v>
+        <v>0.2845831072774707</v>
       </c>
       <c r="E90">
-        <v>-0.2936305177633601</v>
+        <v>0.05195794302707783</v>
       </c>
       <c r="F90">
-        <v>-0.1052223459563263</v>
+        <v>0.1330575704060004</v>
       </c>
       <c r="G90">
-        <v>0.01751576250939251</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.04099956912641039</v>
+      </c>
+      <c r="H90">
+        <v>-0.04310052554659082</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2913899409318231</v>
+        <v>-0.2361110372631936</v>
       </c>
       <c r="C91">
-        <v>0.1013860429113358</v>
+        <v>-0.1050050215362887</v>
       </c>
       <c r="D91">
-        <v>0.06992285820516449</v>
+        <v>-0.1374097212356602</v>
       </c>
       <c r="E91">
-        <v>0.02414431131160006</v>
+        <v>0.0131085002660917</v>
       </c>
       <c r="F91">
-        <v>0.2586774956827869</v>
+        <v>-0.1362701965903123</v>
       </c>
       <c r="G91">
-        <v>-0.03033201619030782</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.2039372313125213</v>
+      </c>
+      <c r="H91">
+        <v>-0.1224461506574024</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1857564472060458</v>
+        <v>-0.2420738068627404</v>
       </c>
       <c r="C92">
-        <v>0.08855807297552054</v>
+        <v>-0.09959731929240428</v>
       </c>
       <c r="D92">
-        <v>-0.1231389909770946</v>
+        <v>0.2289720369865786</v>
       </c>
       <c r="E92">
-        <v>-0.459309428462507</v>
+        <v>0.0322041152763216</v>
       </c>
       <c r="F92">
-        <v>-0.04754926212673895</v>
+        <v>0.1126963283061376</v>
       </c>
       <c r="G92">
-        <v>-0.4802159126322075</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04943337043974663</v>
+      </c>
+      <c r="H92">
+        <v>-0.1395169443094219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1175871249451824</v>
+        <v>-0.213134407386028</v>
       </c>
       <c r="C93">
-        <v>0.06835529759327222</v>
+        <v>-0.04812108390524197</v>
       </c>
       <c r="D93">
-        <v>-0.1089337764056088</v>
+        <v>0.303644878229382</v>
       </c>
       <c r="E93">
-        <v>-0.4043357898870144</v>
+        <v>0.06518188810478719</v>
       </c>
       <c r="F93">
-        <v>-0.06889142005177609</v>
+        <v>0.1715381232466869</v>
       </c>
       <c r="G93">
-        <v>0.08527944263734902</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05334940438199511</v>
+      </c>
+      <c r="H93">
+        <v>0.01436835478597868</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2657885674950054</v>
+        <v>-0.2542705766413961</v>
       </c>
       <c r="C94">
-        <v>0.1449944594910891</v>
+        <v>-0.09365841225385209</v>
       </c>
       <c r="D94">
-        <v>0.05070148837326799</v>
+        <v>-0.1196664069655238</v>
       </c>
       <c r="E94">
-        <v>0.04702186675225702</v>
+        <v>0.03110900249520846</v>
       </c>
       <c r="F94">
-        <v>0.3108878475171912</v>
+        <v>-0.1613010339516246</v>
       </c>
       <c r="G94">
-        <v>0.02586378446179765</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2135065022482246</v>
+      </c>
+      <c r="H94">
+        <v>-0.1337145201553702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07951182896127174</v>
+        <v>-0.06397947663247591</v>
       </c>
       <c r="C95">
-        <v>0.007881412865124927</v>
+        <v>-0.03215668509607685</v>
       </c>
       <c r="D95">
-        <v>0.08340846872626495</v>
+        <v>-0.08987011321586079</v>
       </c>
       <c r="E95">
-        <v>0.07962296094410727</v>
+        <v>0.07183566009926436</v>
       </c>
       <c r="F95">
-        <v>-0.02840422038548156</v>
+        <v>-0.02592934339744937</v>
       </c>
       <c r="G95">
-        <v>-0.2222415288179301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06143520999026029</v>
+      </c>
+      <c r="H95">
+        <v>0.002921067892117395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1881157964069362</v>
+        <v>-0.1810941513235976</v>
       </c>
       <c r="C98">
-        <v>0.03622063767315529</v>
+        <v>-0.07104188578241961</v>
       </c>
       <c r="D98">
-        <v>0.03515062141129355</v>
+        <v>-0.04096103045349606</v>
       </c>
       <c r="E98">
-        <v>-0.03851136851526765</v>
+        <v>0.05297356563523319</v>
       </c>
       <c r="F98">
-        <v>-0.1032885321015111</v>
+        <v>-0.02303080533957579</v>
       </c>
       <c r="G98">
-        <v>0.3468095327683106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1562334056883446</v>
+      </c>
+      <c r="H98">
+        <v>0.3647009358180096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005523815771658448</v>
+        <v>-0.01581045308494311</v>
       </c>
       <c r="C101">
-        <v>0.02278964800103434</v>
+        <v>-0.0004297902223167414</v>
       </c>
       <c r="D101">
-        <v>0.01523080654182388</v>
+        <v>-0.004864186300051603</v>
       </c>
       <c r="E101">
-        <v>0.1172978362118334</v>
+        <v>-0.004475542501635812</v>
       </c>
       <c r="F101">
-        <v>-0.1412970229098365</v>
+        <v>-0.02996313962183273</v>
       </c>
       <c r="G101">
-        <v>-0.1265576472050909</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1022090410841859</v>
+      </c>
+      <c r="H101">
+        <v>-0.07292364729216606</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.0971873151092028</v>
+        <v>-0.1033990873879465</v>
       </c>
       <c r="C102">
-        <v>0.03237856795836734</v>
+        <v>-0.03357405023986273</v>
       </c>
       <c r="D102">
-        <v>0.01937160600402485</v>
+        <v>-0.07175346198924407</v>
       </c>
       <c r="E102">
-        <v>0.05754976345118428</v>
+        <v>-0.002112855159759164</v>
       </c>
       <c r="F102">
-        <v>0.1354760991933219</v>
+        <v>-0.06615210383375668</v>
       </c>
       <c r="G102">
-        <v>-0.06929746108639943</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09511940238960083</v>
+      </c>
+      <c r="H102">
+        <v>-0.05280656253141564</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02491638251084985</v>
+        <v>-0.02020230387994915</v>
       </c>
       <c r="C103">
-        <v>0.01241576192545005</v>
+        <v>-0.007764531747976239</v>
       </c>
       <c r="D103">
-        <v>0.01280089286374048</v>
+        <v>-0.01545251603808781</v>
       </c>
       <c r="E103">
-        <v>0.005674921747438131</v>
+        <v>-0.006309662756406531</v>
       </c>
       <c r="F103">
-        <v>0.0145202626402628</v>
+        <v>-0.01788662017697719</v>
       </c>
       <c r="G103">
-        <v>-0.02108168254644126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.006127738871622282</v>
+      </c>
+      <c r="H103">
+        <v>-0.01141837906332238</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2834708813769883</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.938781479291783</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.04118415784221755</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02475148195726575</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1581384880707996</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03716180627549991</v>
+      </c>
+      <c r="H104">
+        <v>-0.03109840337885585</v>
       </c>
     </row>
   </sheetData>
